--- a/Client/Assets/Data/Dialogue/matong.xlsx
+++ b/Client/Assets/Data/Dialogue/matong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDDC69C-3880-46FE-AB4D-7859CA65B906}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361D191F-8399-4B4A-8232-AAC2311D07E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,14 @@
   </si>
   <si>
     <t>似乎曾经，那也是很多人排队向往之处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你怎么对这种东西有兴趣啊？真是变态！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -671,6 +679,34 @@
         <v>19</v>
       </c>
       <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
         <v>-1</v>
       </c>
     </row>
